--- a/data/trans_bre/P37_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-30,55%</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,56%</t>
+          <t>-17,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>-22,31%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,02%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 3,9</t>
+          <t>-27,99; 18,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 3,83</t>
+          <t>-32,39; 13,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 16,39</t>
+          <t>-19,7; 26,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-61,26; 17,9</t>
+          <t>-22,67; 21,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,52; 13,82</t>
+          <t>-60,36; 110,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 87,6</t>
+          <t>-62,54; 54,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-49,89; 169,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-53,78; 130,81</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-16,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>-19,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,12%</t>
+          <t>-16,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-31,23%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-17,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-31,6%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 16,64</t>
+          <t>-32,63; 15,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 8,89</t>
+          <t>-44,88; 6,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 16,6</t>
+          <t>-35,14; 16,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 105,15</t>
+          <t>-49,32; 5,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,34; 27,89</t>
+          <t>-64,46; 82,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 62,25</t>
+          <t>-63,44; 20,02</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-56,89; 57,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-63,57; 15,69</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,58</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,47%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 17,98</t>
+          <t>-17,52; 13,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 27,1</t>
+          <t>-7,22; 25,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 24,5</t>
+          <t>-15,24; 15,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 77,99</t>
+          <t>-10,37; 21,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 142,14</t>
+          <t>-39,89; 51,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 124,17</t>
+          <t>-18,73; 127,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-32,83; 61,13</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-23,23; 80,19</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>-13,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>-11,39%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-3,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 8,19</t>
+          <t>-19,06; 9,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 9,56</t>
+          <t>-20,17; 8,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 13,02</t>
+          <t>-14,97; 13,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 24,13</t>
+          <t>-11,83; 16,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 26,35</t>
+          <t>-38,88; 29,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 36,76</t>
+          <t>-37,91; 25,16</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-30,02; 38,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-23,34; 47,64</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,42%</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>-19,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,59%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 7,66</t>
+          <t>-28,29; 8,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 16,21</t>
+          <t>-13,08; 21,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 21,31</t>
+          <t>-13,33; 21,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 23,35</t>
+          <t>-8,35; 27,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 60,74</t>
+          <t>-55,27; 30,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 74,8</t>
+          <t>-32,6; 89,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-33,44; 87,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,14; 96,72</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,25</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 37,46</t>
+          <t>-1,8; 37,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 21,78</t>
+          <t>-11,19; 28,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 10,49</t>
+          <t>-20,75; 22,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 140,09</t>
+          <t>-22,58; 28,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 65,31</t>
+          <t>-6,31; 216,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 26,24</t>
+          <t>-27,12; 136,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-39,62; 70,14</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,91; 92,61</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>-5,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,18%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 7,19</t>
+          <t>-10,62; 6,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,63</t>
+          <t>-10,74; 5,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 9,57</t>
+          <t>-10,05; 7,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 22,92</t>
+          <t>-11,36; 8,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 23,26</t>
+          <t>-25,4; 19,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 29,84</t>
+          <t>-23,27; 16,01</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 21,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 23,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P37_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-17,13%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-22,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>25,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-2,97%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.987493011279938</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.844874965396518</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.127497985360618</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.927992336323014</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1650068819890456</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1508618018798517</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1764535348367294</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.06953446751121073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-27,99; 18,09</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-32,39; 13,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-19,7; 26,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-22,67; 21,36</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-60,36; 110,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-62,54; 54,56</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-49,89; 169,54</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-53,78; 130,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-29.14735235734081</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-30.19809797010183</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.42705954682441</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.61150105321149</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6094535686877106</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5816080100149391</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.506104157393615</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4987606818781785</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.86220625923693</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.1648059114744</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>25.04317859086762</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>24.89842322233496</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.317478804914841</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7449549072494591</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.727097981489792</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.553587416157781</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-16,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,01</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-19,52</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-16,77%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-31,23%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-17,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-31,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-32,63; 15,85</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-44,88; 6,77</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-35,14; 16,19</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-49,32; 5,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-64,46; 82,17</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-63,44; 20,02</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-56,89; 57,03</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-63,57; 15,69</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-12.99007754848099</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-13.78400522797728</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-7.248019369918318</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-20.72598397000536</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.3161111283827247</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.2764798910086512</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1609496382718942</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3332418626401783</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-4,28%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>30,85%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-39.39529068616039</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-40.45719487488574</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-34.67139955969125</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-50.51898204293607</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6561876704137046</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6091533447605699</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5555484930883731</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6512087606236581</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,52; 13,5</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,22; 25,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,24; 15,56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 21,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-39,89; 51,98</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,73; 127,5</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-32,83; 61,13</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-23,23; 80,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.14245828901323</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.557541140692457</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.49470737261674</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.411825681671052</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5949536335731175</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2620129843359485</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5560978563223542</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1295595358128911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-13,15%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-11,39%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-3,3%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.9726351031446978</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.472753608248613</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.322310252812453</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.542843938423591</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.02992638720276906</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3157478941013921</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.03507445897579487</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1186620191194033</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-19,06; 9,44</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-20,17; 8,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,97; 13,73</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,83; 16,62</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-38,88; 29,06</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-37,91; 25,16</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-30,02; 38,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-23,34; 47,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.65130819256929</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.605879135698399</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.89468842841113</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.67712905832641</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3697416539493922</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1819143923392059</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3591746100401166</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.238319313381718</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.70377831752966</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>25.08270400670802</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.18877362271666</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.56722321167977</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.6938424086720686</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.327436458433742</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.541016345240993</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7589166688134188</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-7,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-19,77%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,33%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,56%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-28,29; 8,72</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-13,08; 21,45</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-13,33; 21,71</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 27,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-55,27; 30,72</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-32,6; 89,78</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-33,44; 87,35</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-20,14; 96,72</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.303460463903082</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.425661405119597</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.6438455288001799</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.9486011323161903</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1556786215789119</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1228260742510889</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01560665400473746</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02143639697550546</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>19,51</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>70,26%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>24,82%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,2%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-20.33829749152164</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-20.36753597184816</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-13.93293934981658</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.91905580316227</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4177097704265699</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3912604097683553</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2871620593064816</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2569924059511332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 37,99</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,19; 28,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-20,75; 22,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; 28,66</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 216,02</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-27,12; 136,6</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-39,62; 70,14</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-40,91; 92,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.846488987776781</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.587814303428301</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.8839338985219</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.78489447443946</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2590597454001183</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.248858244475305</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4365847299265148</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4350656247144755</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-5,4%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-4,52%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-2,21%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-8.260230382495726</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.827503016051286</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.795861211555163</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>9.508359160074404</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.2047973888826678</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.08675861918363235</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.1098922097752175</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.252949472117493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,62; 6,28</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; 5,37</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 7,17</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 8,77</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-25,4; 19,51</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-23,27; 16,01</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-21,57; 21,27</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-22,72; 23,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-28.73306570989211</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-14.37542627001524</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-12.64466860859091</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-9.392894064744166</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.559409285366786</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3595198807646156</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.3202531657625528</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.2123054527964952</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.22473715433933</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>21.31748406550405</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>22.79174293156106</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>26.99287695188647</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.2709576644663568</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8828062344135256</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.8702211585647728</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.8875460968283337</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>12.26980980981379</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>8.563156913907754</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.3876376877394783</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-3.008132055271634</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.3569364023791286</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.2486305022893632</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.008668655889606403</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.06502707411180141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-11.08166139446964</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-11.72261934024996</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-24.32436565859856</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-27.84836573516879</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.285414655255141</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.2733350793369927</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.4448677141198705</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.4936660476226283</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>32.38520530413152</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>28.92767077029576</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>20.76643377354537</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>22.35088823758962</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.521003001207759</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.304164840490641</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.6342070651025509</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.6605959580514108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-4.146022885470457</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.974372614940755</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.4079807018783632</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-2.084526646242024</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.1093135396683396</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.02509018981832983</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.01050818558406019</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.04740824473568302</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-12.76675858153639</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-9.291123998012711</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-10.22228280221344</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-13.06008737415759</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.2987791490872433</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.2145795702149649</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.2231093255879793</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.2540047276022229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.978319539656577</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.157322141252463</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>7.024076890715906</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7.501726794500134</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.1220656613771538</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1805296641298052</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.1986253411089137</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.1931980555892347</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
